--- a/data_input_TBI3.0.xlsx
+++ b/data_input_TBI3.0.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Middelanis\Desktop\TBI\publication\R\TBI3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Middelanis\Desktop\TBI\publication\TBI3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF91ECC-E394-44EF-877C-789FA1C6A954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAF8F2-CC95-4227-9904-1E8F040E942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gWc+ieCMbYBf09t+3MwdHYf2ZHLjysHEi8vsfA7w5VOPWq27945UAXx18zhIHd8K+Uryujo5RPJ7gDctBWCY7Q==" workbookSaltValue="vt2G02LYkMNyYAURmKDRjg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>1: Variety</t>
   </si>
@@ -179,18 +180,6 @@
     <t>example1</t>
   </si>
   <si>
-    <t>yellow_tea</t>
-  </si>
-  <si>
-    <t>pink_tea</t>
-  </si>
-  <si>
-    <t>purple_tea</t>
-  </si>
-  <si>
-    <t>grey_tea</t>
-  </si>
-  <si>
     <t>We recommend to take samples at 30, 60 and 90 days, but know that this is not always possible…</t>
   </si>
   <si>
@@ -234,6 +223,15 @@
   </si>
   <si>
     <t>5. Weight of dry remaining substrate after incubation (only dry substrate)</t>
+  </si>
+  <si>
+    <t>example2</t>
+  </si>
+  <si>
+    <t>green_tea</t>
+  </si>
+  <si>
+    <t>black_tea</t>
   </si>
 </sst>
 </file>
@@ -398,25 +396,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -426,39 +415,317 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -734,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T129"/>
+  <dimension ref="A1:Y129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,50 +1014,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -798,88 +1065,88 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:20" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -890,7 +1157,7 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -898,225 +1165,223 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="8"/>
+      <c r="A20" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="9" t="s">
-        <v>45</v>
+      <c r="B23" s="29"/>
+      <c r="C23" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="8"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="9" t="s">
-        <v>46</v>
+      <c r="B27" s="29"/>
+      <c r="C27" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="8"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="8"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="8"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="9"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -1209,17 +1474,17 @@
         <f t="shared" si="0"/>
         <v>example1</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="4" t="str">
         <f>$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
+        <v>example2</v>
+      </c>
+      <c r="G48" s="4" t="str">
         <f t="shared" ref="G48:H48" si="1">$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="5">
+        <v>example2</v>
+      </c>
+      <c r="H48" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>example2</v>
       </c>
       <c r="I48" s="4">
         <f>$B$14</f>
@@ -1273,568 +1538,496 @@
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B49" s="18" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D49" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E49" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="12"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="17"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B50" s="19" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D50" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E50" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="12"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="17"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B51" s="20" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D51" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E51" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="19"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B52" s="19" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D52" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E52" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="12"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="17"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B53" s="19" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D53" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E53" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="12"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="17"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B54" s="20" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D54" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E54" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="15"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="19"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="str">
+      <c r="A55" s="3">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B55" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D55" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E55" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="12"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="17"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="str">
+      <c r="A56" s="3">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B56" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D56" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E56" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="12"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="17"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="str">
+      <c r="A57" s="5">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B57" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D57" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E57" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="15"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="19"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="str">
+      <c r="A58" s="3">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B58" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D58" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E58" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="12"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="17"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="str">
+      <c r="A59" s="3">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B59" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D59" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E59" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="12"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="17"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="str">
+      <c r="A60" s="5">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B60" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D60" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E60" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="15"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="19"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="12"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="17"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="12"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="17"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="15"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="19"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="12"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="17"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="12"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="17"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="15"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="19"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -1932,17 +2125,17 @@
         <f t="shared" si="6"/>
         <v>example1</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="4" t="str">
         <f>$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="4">
+        <v>example2</v>
+      </c>
+      <c r="G71" s="4" t="str">
         <f t="shared" ref="G71:H71" si="7">$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
+        <v>example2</v>
+      </c>
+      <c r="H71" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>example2</v>
       </c>
       <c r="I71" s="4">
         <f>$B$14</f>
@@ -1996,564 +2189,564 @@
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B72" s="18" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="16">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D72" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E72" s="17">
+        <v>2.46</v>
+      </c>
+      <c r="F72" s="16">
+        <v>2.42</v>
+      </c>
+      <c r="G72" s="16">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D72" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E72" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="12"/>
+      <c r="H72" s="17">
+        <v>2.41</v>
+      </c>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="17"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B73" s="19" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D73" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E73" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="12"/>
+      <c r="C73" s="16">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D73" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E73" s="17">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F73" s="16">
+        <v>2.41</v>
+      </c>
+      <c r="G73" s="16">
+        <v>2.46</v>
+      </c>
+      <c r="H73" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="17"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B74" s="20" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C74" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D74" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E74" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="14"/>
-      <c r="T74" s="15"/>
+      <c r="C74" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D74" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="E74" s="19">
+        <v>2.42</v>
+      </c>
+      <c r="F74" s="20">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="G74" s="18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H74" s="19">
+        <v>2.48</v>
+      </c>
+      <c r="I74" s="20"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="19"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B75" s="19" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="16">
+        <v>2.52</v>
+      </c>
+      <c r="D75" s="16">
+        <v>2.37</v>
+      </c>
+      <c r="E75" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F75" s="16">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D75" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E75" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="12"/>
+      <c r="G75" s="16">
+        <v>2.46</v>
+      </c>
+      <c r="H75" s="17">
+        <v>2.42</v>
+      </c>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="17"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B76" s="19" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D76" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E76" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="12"/>
+      <c r="C76" s="16">
+        <v>2.72</v>
+      </c>
+      <c r="D76" s="16">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E76" s="17">
+        <v>2.34</v>
+      </c>
+      <c r="F76" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="H76" s="17">
+        <v>2.39</v>
+      </c>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="17"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B77" s="20" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D77" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E77" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="14"/>
-      <c r="T77" s="15"/>
+      <c r="C77" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="D77" s="18">
+        <v>2.37</v>
+      </c>
+      <c r="E77" s="19">
+        <v>2.57</v>
+      </c>
+      <c r="F77" s="20">
+        <v>2.56</v>
+      </c>
+      <c r="G77" s="18">
+        <v>2.52</v>
+      </c>
+      <c r="H77" s="19">
+        <v>2.48</v>
+      </c>
+      <c r="I77" s="20"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="19"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="str">
+      <c r="A78" s="3">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B78" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D78" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E78" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="12"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="17"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="str">
+      <c r="A79" s="3">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B79" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D79" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E79" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="12"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="17"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="str">
+      <c r="A80" s="5">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B80" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D80" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E80" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="15"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="19"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="19"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="str">
+      <c r="A81" s="3">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B81" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D81" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E81" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="12"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="17"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="str">
+      <c r="A82" s="3">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B82" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D82" s="11">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E82" s="12">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="12"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="17"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="str">
+      <c r="A83" s="5">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B83" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C83" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D83" s="14">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="E83" s="15">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="15"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="19"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="19"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="12"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="17"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="12"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="17"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="15"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="19"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="12"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="17"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="12"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="17"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="14"/>
-      <c r="T89" s="15"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="19"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -2579,170 +2772,158 @@
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B94" s="8">
+        <v>green_tea</v>
+      </c>
+      <c r="B94" s="15">
         <v>0.22</v>
       </c>
-      <c r="C94" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="D94" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="C94" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="E94" s="30">
         <f>AVERAGE(B94:D94)</f>
-        <v>0.23666666666666666</v>
+        <v>0.22333333333333336</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B95" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="C95" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D95" s="8">
-        <v>0.18</v>
-      </c>
-      <c r="E95" s="6">
+        <v>black_tea</v>
+      </c>
+      <c r="B95" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="C95" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="E95" s="30">
         <f t="shared" ref="E95:E99" si="12">AVERAGE(B95:D95)</f>
-        <v>0.19000000000000003</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="str">
+      <c r="A96" s="1">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B96" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="C96" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D96" s="8">
-        <v>0.27</v>
-      </c>
-      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="30" t="e">
         <f t="shared" si="12"/>
-        <v>0.27333333333333337</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="str">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B97" s="8">
-        <v>0.24</v>
-      </c>
-      <c r="C97" s="8">
-        <v>0.26</v>
-      </c>
-      <c r="D97" s="8">
-        <v>0.22</v>
-      </c>
-      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="30" t="e">
         <f t="shared" si="12"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="6" t="e">
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="30" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="30" t="e">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="31" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B103" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A104" s="16" t="s">
-        <v>52</v>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B104" s="1">
         <v>30</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
-        <v>53</v>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A105" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B105" s="1">
         <v>60</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="15">
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A106" s="29" t="s">
-        <v>54</v>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B106" s="4">
         <v>90</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="13">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
       <c r="C110" s="1">
         <f>$C$104</f>
@@ -2817,7 +2998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4" t="str">
@@ -2832,17 +3013,17 @@
         <f t="shared" si="13"/>
         <v>example1</v>
       </c>
-      <c r="F111" s="4">
+      <c r="F111" s="4" t="str">
         <f>$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="4">
+        <v>example2</v>
+      </c>
+      <c r="G111" s="4" t="str">
         <f t="shared" ref="G111:H111" si="14">$B$13</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="5">
+        <v>example2</v>
+      </c>
+      <c r="H111" s="5" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>example2</v>
       </c>
       <c r="I111" s="4">
         <f>$B$14</f>
@@ -2892,566 +3073,603 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="W111" s="21"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="21"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B112" s="18" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="11">
-        <v>1.41</v>
-      </c>
-      <c r="D112" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E112" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="11"/>
-      <c r="M112" s="11"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="12"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C112" s="16">
+        <v>1.02</v>
+      </c>
+      <c r="D112" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="E112" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="F112" s="16">
+        <v>1.01</v>
+      </c>
+      <c r="G112" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="H112" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="16"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="17"/>
+      <c r="W112" s="21"/>
+      <c r="X112" s="21"/>
+      <c r="Y112" s="21"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B113" s="19" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="11">
-        <v>1.48</v>
-      </c>
-      <c r="D113" s="11">
-        <v>1.01</v>
-      </c>
-      <c r="E113" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="12"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="12"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C113" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="D113" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="E113" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="F113" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="G113" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="H113" s="17">
+        <v>0.53</v>
+      </c>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="16"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="17"/>
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="str">
         <f>C$23</f>
-        <v>yellow_tea</v>
-      </c>
-      <c r="B114" s="20" t="s">
+        <v>green_tea</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C114" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="D114" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="E114" s="15">
-        <v>0.77</v>
-      </c>
-      <c r="F114" s="13"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="13"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="13"/>
-      <c r="S114" s="14"/>
-      <c r="T114" s="15"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C114" s="18">
+        <v>1</v>
+      </c>
+      <c r="D114" s="18">
+        <v>0.88</v>
+      </c>
+      <c r="E114" s="19">
+        <v>0.83</v>
+      </c>
+      <c r="F114" s="20">
+        <v>0.98</v>
+      </c>
+      <c r="G114" s="18">
+        <v>0.79</v>
+      </c>
+      <c r="H114" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="I114" s="20"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="20"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="19"/>
+      <c r="W114" s="21"/>
+      <c r="X114" s="21"/>
+      <c r="Y114" s="21"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B115" s="19" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="11">
-        <v>1.55</v>
-      </c>
-      <c r="D115" s="11">
-        <v>1.03</v>
-      </c>
-      <c r="E115" s="12">
-        <v>0.81</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="12"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C115" s="16">
+        <v>1.62</v>
+      </c>
+      <c r="D115" s="16">
+        <v>1.23</v>
+      </c>
+      <c r="E115" s="17">
+        <v>1.26</v>
+      </c>
+      <c r="F115" s="16">
+        <v>1.61</v>
+      </c>
+      <c r="G115" s="16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H115" s="17">
+        <v>1.01</v>
+      </c>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="16"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="17"/>
+      <c r="W115" s="21"/>
+      <c r="X115" s="21"/>
+      <c r="Y115" s="21"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B116" s="19" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="11">
-        <v>1.39</v>
-      </c>
-      <c r="D116" s="11">
-        <v>1</v>
-      </c>
-      <c r="E116" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="12"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C116" s="16">
+        <v>1.69</v>
+      </c>
+      <c r="D116" s="16">
+        <v>1.3</v>
+      </c>
+      <c r="E116" s="17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F116" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="G116" s="16">
+        <v>1.24</v>
+      </c>
+      <c r="H116" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="16"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="17"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="str">
         <f>C$27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="B117" s="20" t="s">
+        <v>black_tea</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C117" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="D117" s="14">
-        <v>0.96</v>
-      </c>
-      <c r="E117" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F117" s="13"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="14"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="13"/>
-      <c r="P117" s="14"/>
-      <c r="Q117" s="15"/>
-      <c r="R117" s="13"/>
-      <c r="S117" s="14"/>
-      <c r="T117" s="15"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="str">
+      <c r="C117" s="18">
+        <v>1.53</v>
+      </c>
+      <c r="D117" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="E117" s="19">
+        <v>1.29</v>
+      </c>
+      <c r="F117" s="20">
+        <v>1.59</v>
+      </c>
+      <c r="G117" s="18">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H117" s="19">
+        <v>1.06</v>
+      </c>
+      <c r="I117" s="20"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="19"/>
+      <c r="W117" s="21"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="21"/>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B118" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="11">
-        <v>1.49</v>
-      </c>
-      <c r="D118" s="11">
-        <v>0.98</v>
-      </c>
-      <c r="E118" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="12"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="str">
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="16"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="16"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="17"/>
+      <c r="W118" s="21"/>
+      <c r="X118" s="21"/>
+      <c r="Y118" s="21"/>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B119" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="D119" s="11">
-        <v>0.94</v>
-      </c>
-      <c r="E119" s="12">
-        <v>0.73</v>
-      </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="11"/>
-      <c r="M119" s="11"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="11"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="12"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="str">
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="16"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="17"/>
+      <c r="W119" s="21"/>
+      <c r="X119" s="21"/>
+      <c r="Y119" s="21"/>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
         <f>C$31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="B120" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="14">
-        <v>1.42</v>
-      </c>
-      <c r="D120" s="14">
-        <v>1.03</v>
-      </c>
-      <c r="E120" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="F120" s="13"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="13"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="13"/>
-      <c r="S120" s="14"/>
-      <c r="T120" s="15"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="str">
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="20"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="19"/>
+      <c r="W120" s="21"/>
+      <c r="X120" s="21"/>
+      <c r="Y120" s="21"/>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B121" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="11">
-        <v>1.41</v>
-      </c>
-      <c r="D121" s="11">
-        <v>1.05</v>
-      </c>
-      <c r="E121" s="12">
-        <v>0.78</v>
-      </c>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="11"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="11"/>
-      <c r="M121" s="11"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="11"/>
-      <c r="P121" s="11"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="12"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="str">
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="16"/>
+      <c r="S121" s="16"/>
+      <c r="T121" s="17"/>
+      <c r="W121" s="21"/>
+      <c r="X121" s="21"/>
+      <c r="Y121" s="21"/>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B122" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="11">
-        <v>1.46</v>
-      </c>
-      <c r="D122" s="11">
-        <v>1.01</v>
-      </c>
-      <c r="E122" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="12"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="str">
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="17"/>
+      <c r="R122" s="16"/>
+      <c r="S122" s="16"/>
+      <c r="T122" s="17"/>
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
         <f>C$35</f>
-        <v>grey_tea</v>
-      </c>
-      <c r="B123" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="14">
-        <v>1.35</v>
-      </c>
-      <c r="D123" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="E123" s="15">
-        <v>0.74</v>
-      </c>
-      <c r="F123" s="13"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="13"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="13"/>
-      <c r="S123" s="14"/>
-      <c r="T123" s="15"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="20"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="19"/>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="11"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="11"/>
-      <c r="M124" s="11"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="11"/>
-      <c r="P124" s="11"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="11"/>
-      <c r="S124" s="11"/>
-      <c r="T124" s="12"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="17"/>
+      <c r="R124" s="16"/>
+      <c r="S124" s="16"/>
+      <c r="T124" s="17"/>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="11"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="11"/>
-      <c r="M125" s="11"/>
-      <c r="N125" s="12"/>
-      <c r="O125" s="11"/>
-      <c r="P125" s="11"/>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="11"/>
-      <c r="S125" s="11"/>
-      <c r="T125" s="12"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+      <c r="Q125" s="17"/>
+      <c r="R125" s="16"/>
+      <c r="S125" s="16"/>
+      <c r="T125" s="17"/>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <f>C$39</f>
         <v>0</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="14"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="13"/>
-      <c r="P126" s="14"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="13"/>
-      <c r="S126" s="14"/>
-      <c r="T126" s="15"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="20"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="19"/>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="11"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="11"/>
-      <c r="M127" s="11"/>
-      <c r="N127" s="12"/>
-      <c r="O127" s="11"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="12"/>
-      <c r="R127" s="11"/>
-      <c r="S127" s="11"/>
-      <c r="T127" s="12"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="17"/>
+      <c r="R127" s="16"/>
+      <c r="S127" s="16"/>
+      <c r="T127" s="17"/>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="11"/>
-      <c r="P128" s="11"/>
-      <c r="Q128" s="12"/>
-      <c r="R128" s="11"/>
-      <c r="S128" s="11"/>
-      <c r="T128" s="12"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="17"/>
+      <c r="R128" s="16"/>
+      <c r="S128" s="16"/>
+      <c r="T128" s="17"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <f>C$43</f>
         <v>0</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="14"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="13"/>
-      <c r="P129" s="14"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="13"/>
-      <c r="S129" s="14"/>
-      <c r="T129" s="15"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="20"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="20"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="18"/>
+      <c r="T129" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="dHI8CxL0aPoYcE00IopdKCw91tU13PZXoTB7Un4ne2Ux9UIfzWA6j2xUq786ZaVkFxZqR1PUoo8LEHl646llVA==" saltValue="mTuZtzv17Tc/eJ/rO4Qg6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -3492,6 +3710,181 @@
     <mergeCell ref="D5:J5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C52:T54">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$C$27=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C55:T57">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$C$31=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:T60">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$C$35=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61:T63">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$C$39=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64:T66">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$C$43=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H66">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$B$13=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:K66">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$B$14=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:N66">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$B$15=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:Q66">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$B$16=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R49:T66">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$B$17=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:T77">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$C$27=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:T80">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$C$31=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:T83">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$C$35=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:T86">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$C$39=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:T89">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$C$43=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:H89">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$B$13=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:K89">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$B$14=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:N89">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$B$15=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O72:Q89">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$B$16=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R72:T89">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$B$17=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115:T117">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$C$27=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:T120">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$C$31=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121:T123">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$C$35=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124:T126">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$C$39=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:T129">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$C$43=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F112:H129">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$B$13=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I112:K129">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B$14=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L112:N129">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B$15=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O112:Q129">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B$16=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R112:T129">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B$17=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B95:D95">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C$27=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:D96">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$C$31=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B97:D97">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C$35=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B98:D98">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$C$39=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B99:D99">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$C$43=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3502,7 +3895,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3520,19 +3913,19 @@
       </c>
       <c r="C1" s="1" t="str">
         <f>input!C23</f>
-        <v>yellow_tea</v>
+        <v>green_tea</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>input!C27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="E1" s="1" t="str">
+        <v>black_tea</v>
+      </c>
+      <c r="E1" s="1">
         <f>input!C31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="F1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
         <f>input!C35</f>
-        <v>grey_tea</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>input!C39</f>
@@ -3553,19 +3946,19 @@
       </c>
       <c r="C2" s="1">
         <f>input!C112/(input!C72-input!$E$94)</f>
-        <v>0.62023460410557196</v>
+        <v>0.45808383233532929</v>
       </c>
       <c r="D2" s="1">
         <f>input!C115/(input!C75-input!$E$95)</f>
-        <v>0.6681034482758621</v>
-      </c>
-      <c r="E2" s="1">
+        <v>0.70742358078602618</v>
+      </c>
+      <c r="E2" s="1" t="e">
         <f>input!C118/(input!C78-input!$E$96)</f>
-        <v>0.66616989567809248</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>input!C121/(input!C81-input!$E$97)</f>
-        <v>0.62114537444933926</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="1" t="e">
         <f>input!C124/(input!C84-input!$E$98)</f>
@@ -3586,19 +3979,19 @@
       </c>
       <c r="C3" s="1">
         <f>input!C113/(input!C73-input!$E$94)</f>
-        <v>0.65102639296187692</v>
+        <v>0.47155688622754488</v>
       </c>
       <c r="D3" s="1">
         <f>input!C116/(input!C76-input!$E$95)</f>
-        <v>0.59913793103448276</v>
-      </c>
-      <c r="E3" s="1">
+        <v>0.67871485943775089</v>
+      </c>
+      <c r="E3" s="1" t="e">
         <f>input!C119/(input!C79-input!$E$96)</f>
-        <v>0.67064083457526091</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>input!C122/(input!C82-input!$E$97)</f>
-        <v>0.64317180616740099</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>input!C125/(input!C85-input!$E$98)</f>
@@ -3619,19 +4012,19 @@
       </c>
       <c r="C4" s="1">
         <f>input!C114/(input!C74-input!$E$94)</f>
-        <v>0.59384164222873914</v>
+        <v>0.48154093097913325</v>
       </c>
       <c r="D4" s="1">
         <f>input!C117/(input!C77-input!$E$95)</f>
-        <v>0.60344827586206895</v>
-      </c>
-      <c r="E4" s="1">
+        <v>0.67400881057268724</v>
+      </c>
+      <c r="E4" s="1" t="e">
         <f>input!C120/(input!C80-input!$E$96)</f>
-        <v>0.63487332339791358</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>input!C123/(input!C83-input!$E$97)</f>
-        <v>0.59471365638766538</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="1" t="e">
         <f>input!C126/(input!C86-input!$E$98)</f>
@@ -3652,19 +4045,19 @@
       </c>
       <c r="C5" s="1">
         <f>input!D112/(input!D72-input!$E$94)</f>
-        <v>0.43108504398826986</v>
+        <v>0.39425981873111776</v>
       </c>
       <c r="D5" s="1">
         <f>input!D115/(input!D75-input!$E$95)</f>
-        <v>0.44396551724137934</v>
-      </c>
-      <c r="E5" s="1">
+        <v>0.57476635514018692</v>
+      </c>
+      <c r="E5" s="1" t="e">
         <f>input!D118/(input!D78-input!$E$96)</f>
-        <v>0.4381520119225038</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>input!D121/(input!D81-input!$E$97)</f>
-        <v>0.46255506607929525</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="1" t="e">
         <f>input!D124/(input!D84-input!$E$98)</f>
@@ -3685,19 +4078,19 @@
       </c>
       <c r="C6" s="1">
         <f>input!D113/(input!D73-input!$E$94)</f>
-        <v>0.44428152492668627</v>
+        <v>0.39425981873111776</v>
       </c>
       <c r="D6" s="1">
         <f>input!D116/(input!D76-input!$E$95)</f>
-        <v>0.43103448275862072</v>
-      </c>
-      <c r="E6" s="1">
+        <v>0.58035714285714279</v>
+      </c>
+      <c r="E6" s="1" t="e">
         <f>input!D119/(input!D79-input!$E$96)</f>
-        <v>0.42026825633383014</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>input!D122/(input!D82-input!$E$97)</f>
-        <v>0.44493392070484589</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="e">
         <f>input!D125/(input!D85-input!$E$98)</f>
@@ -3718,19 +4111,19 @@
       </c>
       <c r="C7" s="1">
         <f>input!D114/(input!D74-input!$E$94)</f>
-        <v>0.43548387096774199</v>
+        <v>0.4042879019908116</v>
       </c>
       <c r="D7" s="1">
         <f>input!D117/(input!D77-input!$E$95)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="E7" s="1">
+        <v>0.56074766355140182</v>
+      </c>
+      <c r="E7" s="1" t="e">
         <f>input!D120/(input!D80-input!$E$96)</f>
-        <v>0.46050670640834585</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>input!D123/(input!D83-input!$E$97)</f>
-        <v>0.43171806167400889</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="e">
         <f>input!D126/(input!D86-input!$E$98)</f>
@@ -3751,19 +4144,19 @@
       </c>
       <c r="C8" s="1">
         <f>input!E112/(input!E72-input!$E$94)</f>
-        <v>0.33870967741935487</v>
+        <v>0.32637853949329354</v>
       </c>
       <c r="D8" s="1">
         <f>input!E115/(input!E75-input!$E$95)</f>
-        <v>0.34913793103448282</v>
-      </c>
-      <c r="E8" s="1">
+        <v>0.5431034482758621</v>
+      </c>
+      <c r="E8" s="1" t="e">
         <f>input!E118/(input!E78-input!$E$96)</f>
-        <v>0.33532041728763046</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>input!E121/(input!E81-input!$E$97)</f>
-        <v>0.34361233480176218</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="1" t="e">
         <f>input!E124/(input!E84-input!$E$98)</f>
@@ -3784,19 +4177,19 @@
       </c>
       <c r="C9" s="1">
         <f>input!E113/(input!E73-input!$E$94)</f>
-        <v>0.3475073313782992</v>
+        <v>0.33382789317507411</v>
       </c>
       <c r="D9" s="1">
         <f>input!E116/(input!E76-input!$E$95)</f>
-        <v>0.34051724137931039</v>
-      </c>
-      <c r="E9" s="1">
+        <v>0.54502369668246442</v>
+      </c>
+      <c r="E9" s="1" t="e">
         <f>input!E119/(input!E79-input!$E$96)</f>
-        <v>0.32637853949329365</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>input!E122/(input!E82-input!$E$97)</f>
-        <v>0.33480176211453749</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="1" t="e">
         <f>input!E125/(input!E85-input!$E$98)</f>
@@ -3817,19 +4210,19 @@
       </c>
       <c r="C10" s="1">
         <f>input!E114/(input!E74-input!$E$94)</f>
-        <v>0.33870967741935487</v>
+        <v>0.37784522003034898</v>
       </c>
       <c r="D10" s="1">
         <f>input!E117/(input!E77-input!$E$95)</f>
-        <v>0.34482758620689657</v>
-      </c>
-      <c r="E10" s="1">
+        <v>0.55128205128205132</v>
+      </c>
+      <c r="E10" s="1" t="e">
         <f>input!E120/(input!E80-input!$E$96)</f>
-        <v>0.33084947839046203</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>input!E123/(input!E83-input!$E$97)</f>
-        <v>0.32599118942731281</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="1" t="e">
         <f>input!E126/(input!E86-input!$E$98)</f>
@@ -3841,6 +4234,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="tPtHsmBX60yH45R66fmofIN/ouVyUV1PZy0Xj3VoJayxAvYYdxqKK5SZJ0Z5yCeMX5EXAO61OHm37saFk+uf8A==" saltValue="N34Os09NEZJzoYsceS7r5A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -3858,28 +4252,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
+      <c r="A1" s="2" t="str">
         <f>input!B13</f>
-        <v>0</v>
+        <v>example2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>input!C23</f>
-        <v>yellow_tea</v>
+        <v>green_tea</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>input!C27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="E1" s="1" t="str">
+        <v>black_tea</v>
+      </c>
+      <c r="E1" s="1">
         <f>input!C31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="F1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
         <f>input!C35</f>
-        <v>grey_tea</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>input!C39</f>
@@ -3900,19 +4294,19 @@
       </c>
       <c r="C2" s="1">
         <f>input!F112/(input!F72-input!$E$94)</f>
-        <v>0</v>
+        <v>0.4597875569044006</v>
       </c>
       <c r="D2" s="1">
         <f>input!F115/(input!F75-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+        <v>0.70614035087719307</v>
+      </c>
+      <c r="E2" s="1" t="e">
         <f>input!F118/(input!F78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>input!F121/(input!F81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="1" t="e">
         <f>input!F124/(input!F84-input!$E$98)</f>
@@ -3933,19 +4327,19 @@
       </c>
       <c r="C3" s="1">
         <f>input!F113/(input!F73-input!$E$94)</f>
-        <v>0</v>
+        <v>0.48018292682926822</v>
       </c>
       <c r="D3" s="1">
         <f>input!F116/(input!F76-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+        <v>0.72687224669603523</v>
+      </c>
+      <c r="E3" s="1" t="e">
         <f>input!F119/(input!F79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>input!F122/(input!F82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>input!F125/(input!F85-input!$E$98)</f>
@@ -3966,19 +4360,19 @@
       </c>
       <c r="C4" s="1">
         <f>input!F114/(input!F74-input!$E$94)</f>
-        <v>0</v>
+        <v>0.44410876132930505</v>
       </c>
       <c r="D4" s="1">
         <f>input!F117/(input!F77-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+        <v>0.68240343347639487</v>
+      </c>
+      <c r="E4" s="1" t="e">
         <f>input!F120/(input!F80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>input!F123/(input!F83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="1" t="e">
         <f>input!F126/(input!F86-input!$E$98)</f>
@@ -3999,19 +4393,19 @@
       </c>
       <c r="C5" s="1">
         <f>input!G112/(input!G72-input!$E$94)</f>
-        <v>0</v>
+        <v>0.35422740524781343</v>
       </c>
       <c r="D5" s="1">
         <f>input!G115/(input!G75-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+        <v>0.51569506726457393</v>
+      </c>
+      <c r="E5" s="1" t="e">
         <f>input!G118/(input!G78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>input!G121/(input!G81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="1" t="e">
         <f>input!G124/(input!G84-input!$E$98)</f>
@@ -4032,19 +4426,19 @@
       </c>
       <c r="C6" s="1">
         <f>input!G113/(input!G73-input!$E$94)</f>
-        <v>0</v>
+        <v>0.375558867362146</v>
       </c>
       <c r="D6" s="1">
         <f>input!G116/(input!G76-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="E6" s="1" t="e">
         <f>input!G119/(input!G79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>input!G122/(input!G82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="e">
         <f>input!G125/(input!G85-input!$E$98)</f>
@@ -4065,19 +4459,19 @@
       </c>
       <c r="C7" s="1">
         <f>input!G114/(input!G74-input!$E$94)</f>
-        <v>0</v>
+        <v>0.35800604229607247</v>
       </c>
       <c r="D7" s="1">
         <f>input!G117/(input!G77-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+        <v>0.48908296943231444</v>
+      </c>
+      <c r="E7" s="1" t="e">
         <f>input!G120/(input!G80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>input!G123/(input!G83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="e">
         <f>input!G126/(input!G86-input!$E$98)</f>
@@ -4098,19 +4492,19 @@
       </c>
       <c r="C8" s="1">
         <f>input!H112/(input!H72-input!$E$94)</f>
-        <v>0</v>
+        <v>0.27896341463414631</v>
       </c>
       <c r="D8" s="1">
         <f>input!H115/(input!H75-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+        <v>0.46118721461187218</v>
+      </c>
+      <c r="E8" s="1" t="e">
         <f>input!H118/(input!H78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>input!H121/(input!H81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="1" t="e">
         <f>input!H124/(input!H84-input!$E$98)</f>
@@ -4131,19 +4525,19 @@
       </c>
       <c r="C9" s="1">
         <f>input!H113/(input!H73-input!$E$94)</f>
-        <v>0</v>
+        <v>0.22779369627507165</v>
       </c>
       <c r="D9" s="1">
         <f>input!H116/(input!H76-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9" s="1" t="e">
         <f>input!H119/(input!H79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>input!H122/(input!H82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="1" t="e">
         <f>input!H125/(input!H85-input!$E$98)</f>
@@ -4164,19 +4558,19 @@
       </c>
       <c r="C10" s="1">
         <f>input!H114/(input!H74-input!$E$94)</f>
-        <v>0</v>
+        <v>0.28360413589364841</v>
       </c>
       <c r="D10" s="1">
         <f>input!H117/(input!H77-input!$E$95)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
+        <v>0.47111111111111115</v>
+      </c>
+      <c r="E10" s="1" t="e">
         <f>input!H120/(input!H80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>input!H123/(input!H83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="1" t="e">
         <f>input!H126/(input!H86-input!$E$98)</f>
@@ -4188,6 +4582,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Eu7ZKui3FAH469b80dz5IZRHet3EAPXN4j40dxA7/SNSOzzHw45UnwwYvQlGJpQvKtiyxIl9KKuD7M2m/c+MXw==" saltValue="3S1UJ5d09f4lu5yJtxM5cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4213,19 +4608,19 @@
       </c>
       <c r="C1" s="1" t="str">
         <f>input!C23</f>
-        <v>yellow_tea</v>
+        <v>green_tea</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>input!C27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="E1" s="1" t="str">
+        <v>black_tea</v>
+      </c>
+      <c r="E1" s="1">
         <f>input!C31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="F1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
         <f>input!C35</f>
-        <v>grey_tea</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>input!C39</f>
@@ -4252,13 +4647,13 @@
         <f>input!I115/(input!I75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="e">
         <f>input!I118/(input!I78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>input!I121/(input!I81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="1" t="e">
         <f>input!I124/(input!I84-input!$E$98)</f>
@@ -4285,13 +4680,13 @@
         <f>input!I116/(input!I76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="e">
         <f>input!I119/(input!I79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>input!I122/(input!I82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>input!I125/(input!I85-input!$E$98)</f>
@@ -4318,13 +4713,13 @@
         <f>input!I117/(input!I77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="e">
         <f>input!I120/(input!I80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>input!I123/(input!I83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="1" t="e">
         <f>input!I126/(input!I86-input!$E$98)</f>
@@ -4351,13 +4746,13 @@
         <f>input!J115/(input!J75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="e">
         <f>input!J118/(input!J78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>input!J121/(input!J81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="1" t="e">
         <f>input!J124/(input!J84-input!$E$98)</f>
@@ -4384,13 +4779,13 @@
         <f>input!J116/(input!J76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="e">
         <f>input!J119/(input!J79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>input!J122/(input!J82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="e">
         <f>input!J125/(input!J85-input!$E$98)</f>
@@ -4417,13 +4812,13 @@
         <f>input!J117/(input!J77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="e">
         <f>input!J120/(input!J80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>input!J123/(input!J83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="e">
         <f>input!J126/(input!J86-input!$E$98)</f>
@@ -4450,13 +4845,13 @@
         <f>input!K115/(input!K75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="e">
         <f>input!K118/(input!K78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>input!K121/(input!K81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="1" t="e">
         <f>input!K124/(input!K84-input!$E$98)</f>
@@ -4483,13 +4878,13 @@
         <f>input!K116/(input!K76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="e">
         <f>input!K119/(input!K79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>input!K122/(input!K82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="1" t="e">
         <f>input!K125/(input!K85-input!$E$98)</f>
@@ -4516,13 +4911,13 @@
         <f>input!K117/(input!K77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="e">
         <f>input!K120/(input!K80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>input!K123/(input!K83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="1" t="e">
         <f>input!K126/(input!K86-input!$E$98)</f>
@@ -4534,6 +4929,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="r3dMOp1E8PHlsk4i/FGp/Z7Cod5WuVEbEsgRZ7mbsxk2bYC6M2HMaHBf9wvA6jGIqhjAVl53Vd5DD7FcLxFW+w==" saltValue="C3qajp/u6poMQjzgb7AaYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4559,19 +4955,19 @@
       </c>
       <c r="C1" s="1" t="str">
         <f>input!C23</f>
-        <v>yellow_tea</v>
+        <v>green_tea</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>input!C27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="E1" s="1" t="str">
+        <v>black_tea</v>
+      </c>
+      <c r="E1" s="1">
         <f>input!C31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="F1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
         <f>input!C35</f>
-        <v>grey_tea</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>input!C39</f>
@@ -4598,13 +4994,13 @@
         <f>input!L115/(input!L75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="e">
         <f>input!L118/(input!L78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>input!L121/(input!L81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="1" t="e">
         <f>input!L124/(input!L84-input!$E$98)</f>
@@ -4631,13 +5027,13 @@
         <f>input!L116/(input!L76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="e">
         <f>input!L119/(input!L79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>input!L122/(input!L82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>input!L125/(input!L85-input!$E$98)</f>
@@ -4664,13 +5060,13 @@
         <f>input!L117/(input!L77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="e">
         <f>input!L120/(input!L80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>input!L123/(input!L83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="1" t="e">
         <f>input!L126/(input!L86-input!$E$98)</f>
@@ -4697,13 +5093,13 @@
         <f>input!M115/(input!M75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="e">
         <f>input!M118/(input!M78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>input!M121/(input!M81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="1" t="e">
         <f>input!M124/(input!M84-input!$E$98)</f>
@@ -4730,13 +5126,13 @@
         <f>input!M116/(input!M76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="e">
         <f>input!M119/(input!M79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>input!M122/(input!M82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="e">
         <f>input!M125/(input!M85-input!$E$98)</f>
@@ -4763,13 +5159,13 @@
         <f>input!M117/(input!M77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="e">
         <f>input!M120/(input!M80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>input!M123/(input!M83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="e">
         <f>input!M126/(input!M86-input!$E$98)</f>
@@ -4796,13 +5192,13 @@
         <f>input!N115/(input!N75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="e">
         <f>input!N118/(input!N78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>input!N121/(input!N81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="1" t="e">
         <f>input!N124/(input!N84-input!$E$98)</f>
@@ -4829,13 +5225,13 @@
         <f>input!N116/(input!N76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="e">
         <f>input!N119/(input!N79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>input!N122/(input!N82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="1" t="e">
         <f>input!N125/(input!N85-input!$E$98)</f>
@@ -4862,13 +5258,13 @@
         <f>input!N117/(input!N77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="e">
         <f>input!N120/(input!N80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>input!N123/(input!N83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="1" t="e">
         <f>input!N126/(input!N86-input!$E$98)</f>
@@ -4880,6 +5276,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="x4Nuf7EuJfka4Su9Maj/DMq4QND+K2cNOUCY/1wgUX+36o2WamRbpIFyOeEyokJf1dxj4mbGFP085QDosMbDeA==" saltValue="HvsGRm2WGT5I4zG+II795Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4905,19 +5302,19 @@
       </c>
       <c r="C1" s="1" t="str">
         <f>input!C23</f>
-        <v>yellow_tea</v>
+        <v>green_tea</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>input!C27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="E1" s="1" t="str">
+        <v>black_tea</v>
+      </c>
+      <c r="E1" s="1">
         <f>input!C31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="F1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
         <f>input!C35</f>
-        <v>grey_tea</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>input!C39</f>
@@ -4944,13 +5341,13 @@
         <f>input!O115/(input!O75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="e">
         <f>input!O118/(input!O78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>input!O121/(input!O81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="1" t="e">
         <f>input!O124/(input!O84-input!$E$98)</f>
@@ -4977,13 +5374,13 @@
         <f>input!O116/(input!O76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="e">
         <f>input!O119/(input!O79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>input!O122/(input!O82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>input!O125/(input!O85-input!$E$98)</f>
@@ -5010,13 +5407,13 @@
         <f>input!O117/(input!O77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="e">
         <f>input!O120/(input!O80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>input!O123/(input!O83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="1" t="e">
         <f>input!O126/(input!O86-input!$E$98)</f>
@@ -5043,13 +5440,13 @@
         <f>input!P115/(input!P75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="e">
         <f>input!P118/(input!P78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>input!P121/(input!P81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="1" t="e">
         <f>input!P124/(input!P84-input!$E$98)</f>
@@ -5076,13 +5473,13 @@
         <f>input!P116/(input!P76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="e">
         <f>input!P119/(input!P79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>input!P122/(input!P82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="e">
         <f>input!P125/(input!P85-input!$E$98)</f>
@@ -5109,13 +5506,13 @@
         <f>input!P117/(input!P77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="e">
         <f>input!P120/(input!P80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>input!P123/(input!P83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="e">
         <f>input!P126/(input!P86-input!$E$98)</f>
@@ -5142,13 +5539,13 @@
         <f>input!Q115/(input!Q75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="e">
         <f>input!Q118/(input!Q78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>input!Q121/(input!Q81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="1" t="e">
         <f>input!Q124/(input!Q84-input!$E$98)</f>
@@ -5175,13 +5572,13 @@
         <f>input!Q116/(input!Q76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="e">
         <f>input!Q119/(input!Q79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>input!Q122/(input!Q82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="1" t="e">
         <f>input!Q125/(input!Q85-input!$E$98)</f>
@@ -5208,13 +5605,13 @@
         <f>input!Q117/(input!Q77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="e">
         <f>input!Q120/(input!Q80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>input!Q123/(input!Q83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="1" t="e">
         <f>input!Q126/(input!Q86-input!$E$98)</f>
@@ -5226,6 +5623,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="wNz4ZRrw+Xuo5LebwjoBpQa3g1tSol5D2XJsXtwJHzR85w9zfruHj4LaPbNP6t+cWygSZs+WH7MbgWJmGV7/4w==" saltValue="+A/wV3byyV0Zh1Fp0huVTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5251,19 +5649,19 @@
       </c>
       <c r="C1" s="1" t="str">
         <f>input!C23</f>
-        <v>yellow_tea</v>
+        <v>green_tea</v>
       </c>
       <c r="D1" s="1" t="str">
         <f>input!C27</f>
-        <v>pink_tea</v>
-      </c>
-      <c r="E1" s="1" t="str">
+        <v>black_tea</v>
+      </c>
+      <c r="E1" s="1">
         <f>input!C31</f>
-        <v>purple_tea</v>
-      </c>
-      <c r="F1" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
         <f>input!C35</f>
-        <v>grey_tea</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1">
         <f>input!C39</f>
@@ -5290,13 +5688,13 @@
         <f>input!R115/(input!R75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="e">
         <f>input!R118/(input!R78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="e">
         <f>input!R121/(input!R81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G2" s="1" t="e">
         <f>input!R124/(input!R84-input!$E$98)</f>
@@ -5323,13 +5721,13 @@
         <f>input!R116/(input!R76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="e">
         <f>input!R119/(input!R79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F3" s="1" t="e">
         <f>input!R122/(input!R82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" s="1" t="e">
         <f>input!R125/(input!R85-input!$E$98)</f>
@@ -5356,13 +5754,13 @@
         <f>input!R117/(input!R77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="e">
         <f>input!R120/(input!R80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="1" t="e">
         <f>input!R123/(input!R83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="1" t="e">
         <f>input!R126/(input!R86-input!$E$98)</f>
@@ -5389,13 +5787,13 @@
         <f>input!S115/(input!S75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="e">
         <f>input!S118/(input!S78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="1" t="e">
         <f>input!S121/(input!S81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" s="1" t="e">
         <f>input!S124/(input!S84-input!$E$98)</f>
@@ -5422,13 +5820,13 @@
         <f>input!S116/(input!S76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="e">
         <f>input!S119/(input!S79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="1" t="e">
         <f>input!S122/(input!S82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G6" s="1" t="e">
         <f>input!S125/(input!S85-input!$E$98)</f>
@@ -5455,13 +5853,13 @@
         <f>input!S117/(input!S77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="e">
         <f>input!S120/(input!S80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="1" t="e">
         <f>input!S123/(input!S83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G7" s="1" t="e">
         <f>input!S126/(input!S86-input!$E$98)</f>
@@ -5488,13 +5886,13 @@
         <f>input!T115/(input!T75-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="e">
         <f>input!T118/(input!T78-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
         <f>input!T121/(input!T81-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G8" s="1" t="e">
         <f>input!T124/(input!T84-input!$E$98)</f>
@@ -5521,13 +5919,13 @@
         <f>input!T116/(input!T76-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="e">
         <f>input!T119/(input!T79-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="1" t="e">
         <f>input!T122/(input!T82-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G9" s="1" t="e">
         <f>input!T125/(input!T85-input!$E$98)</f>
@@ -5555,13 +5953,13 @@
         <f>input!T117/(input!T77-input!$E$95)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1" t="e">
         <f>input!T120/(input!T80-input!$E$96)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="1" t="e">
         <f>input!T123/(input!T83-input!$E$97)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G10" s="1" t="e">
         <f>input!T126/(input!T86-input!$E$98)</f>
@@ -5573,6 +5971,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="th+T8/2Vql0lCo0veasex15+3x9R8DqKurTRIqsAILwvIHXnyYlgGwsnOMiC1Npw2Zsqdvg1mneheD2y2soTqA==" saltValue="lLYQd9dRCXSCG4PMmfeeOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_input_TBI3.0.xlsx
+++ b/data_input_TBI3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Middelanis\Desktop\TBI\publication\TBI3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAF8F2-CC95-4227-9904-1E8F040E942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472CDFD-CD08-4699-8AB9-7E6161623386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gWc+ieCMbYBf09t+3MwdHYf2ZHLjysHEi8vsfA7w5VOPWq27945UAXx18zhIHd8K+Uryujo5RPJ7gDctBWCY7Q==" workbookSaltValue="vt2G02LYkMNyYAURmKDRjg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -180,9 +180,6 @@
     <t>example1</t>
   </si>
   <si>
-    <t>We recommend to take samples at 30, 60 and 90 days, but know that this is not always possible…</t>
-  </si>
-  <si>
     <t>interval</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>black_tea</t>
+  </si>
+  <si>
+    <t>We recommend to take samples at 20, 40 and 90 days, but know that this is not always possible…</t>
   </si>
 </sst>
 </file>
@@ -445,6 +445,8 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -473,8 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1003,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
@@ -1014,28 +1014,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="A1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
@@ -1065,88 +1065,88 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:20" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1166,7 +1166,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1195,179 +1195,179 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="29"/>
+      <c r="A20" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="31"/>
       <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="29"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="29"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="15"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="29"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="29"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="29"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="29"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="29"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="29"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="29"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="29"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -1376,23 +1376,23 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
       <c r="C47" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E47" s="3">
         <f>$C$106</f>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="F47" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G47" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H47" s="3">
         <f>$C$106</f>
@@ -1412,11 +1412,11 @@
       </c>
       <c r="I47" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J47" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K47" s="3">
         <f>$C$106</f>
@@ -1424,11 +1424,11 @@
       </c>
       <c r="L47" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M47" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N47" s="3">
         <f>$C$106</f>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="O47" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P47" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q47" s="3">
         <f>$C$106</f>
@@ -1448,11 +1448,11 @@
       </c>
       <c r="R47" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S47" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T47" s="3">
         <f>$C$106</f>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -2039,11 +2039,11 @@
       <c r="B70" s="3"/>
       <c r="C70" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E70" s="3">
         <f>$C$106</f>
@@ -2051,11 +2051,11 @@
       </c>
       <c r="F70" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G70" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H70" s="3">
         <f>$C$106</f>
@@ -2063,11 +2063,11 @@
       </c>
       <c r="I70" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J70" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K70" s="3">
         <f>$C$106</f>
@@ -2075,11 +2075,11 @@
       </c>
       <c r="L70" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M70" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N70" s="3">
         <f>$C$106</f>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="O70" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P70" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q70" s="3">
         <f>$C$106</f>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="R70" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S70" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T70" s="3">
         <f>$C$106</f>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -2783,7 +2783,7 @@
       <c r="D94" s="15">
         <v>0.23</v>
       </c>
-      <c r="E94" s="30">
+      <c r="E94" s="22">
         <f>AVERAGE(B94:D94)</f>
         <v>0.22333333333333336</v>
       </c>
@@ -2797,14 +2797,14 @@
         <v>0.23</v>
       </c>
       <c r="C95" s="15">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="D95" s="15">
         <v>0.23</v>
       </c>
-      <c r="E95" s="30">
+      <c r="E95" s="22">
         <f t="shared" ref="E95:E99" si="12">AVERAGE(B95:D95)</f>
-        <v>0.23</v>
+        <v>0.23333333333333331</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -2815,7 +2815,7 @@
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
-      <c r="E96" s="30" t="e">
+      <c r="E96" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
-      <c r="E97" s="30" t="e">
+      <c r="E97" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
-      <c r="E98" s="30" t="e">
+      <c r="E98" s="22" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -2854,57 +2854,57 @@
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
-      <c r="E99" s="31" t="e">
+      <c r="E99" s="23" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C104" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B105" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C105" s="15">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B106" s="4">
         <v>90</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
@@ -2927,11 +2927,11 @@
       <c r="B110" s="3"/>
       <c r="C110" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D110" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E110" s="3">
         <f>$C$106</f>
@@ -2939,11 +2939,11 @@
       </c>
       <c r="F110" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G110" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H110" s="3">
         <f>$C$106</f>
@@ -2951,11 +2951,11 @@
       </c>
       <c r="I110" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J110" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K110" s="3">
         <f>$C$106</f>
@@ -2963,11 +2963,11 @@
       </c>
       <c r="L110" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M110" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N110" s="3">
         <f>$C$106</f>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="O110" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P110" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q110" s="3">
         <f>$C$106</f>
@@ -2987,11 +2987,11 @@
       </c>
       <c r="R110" s="1">
         <f>$C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S110" s="1">
         <f>$C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T110" s="3">
         <f>$C$106</f>
@@ -3086,22 +3086,22 @@
         <v>19</v>
       </c>
       <c r="C112" s="16">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="D112" s="16">
-        <v>0.87</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E112" s="17">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="F112" s="16">
+        <v>1.43</v>
+      </c>
+      <c r="G112" s="16">
         <v>1.01</v>
       </c>
-      <c r="G112" s="16">
-        <v>0.81</v>
-      </c>
       <c r="H112" s="17">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="I112" s="16"/>
       <c r="J112" s="16"/>
@@ -3128,22 +3128,22 @@
         <v>20</v>
       </c>
       <c r="C113" s="16">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="D113" s="16">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="E113" s="17">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F113" s="16">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="G113" s="16">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="H113" s="17">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="I113" s="16"/>
       <c r="J113" s="16"/>
@@ -3170,22 +3170,22 @@
         <v>21</v>
       </c>
       <c r="C114" s="18">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="D114" s="18">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="E114" s="19">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F114" s="20">
-        <v>0.98</v>
+        <v>1.45</v>
       </c>
       <c r="G114" s="18">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="H114" s="19">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="I114" s="20"/>
       <c r="J114" s="18"/>
@@ -3212,22 +3212,22 @@
         <v>19</v>
       </c>
       <c r="C115" s="16">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="D115" s="16">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="E115" s="17">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="F115" s="16">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="G115" s="16">
-        <v>1.1499999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="H115" s="17">
-        <v>1.01</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I115" s="16"/>
       <c r="J115" s="16"/>
@@ -3254,22 +3254,22 @@
         <v>20</v>
       </c>
       <c r="C116" s="16">
-        <v>1.69</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D116" s="16">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="E116" s="17">
-        <v>1.1499999999999999</v>
+        <v>1.26</v>
       </c>
       <c r="F116" s="16">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="G116" s="16">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="H116" s="17">
-        <v>0.99</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I116" s="16"/>
       <c r="J116" s="16"/>
@@ -3296,22 +3296,22 @@
         <v>21</v>
       </c>
       <c r="C117" s="18">
+        <v>1.92</v>
+      </c>
+      <c r="D117" s="18">
         <v>1.53</v>
       </c>
-      <c r="D117" s="18">
-        <v>1.2</v>
-      </c>
       <c r="E117" s="19">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="F117" s="20">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="G117" s="18">
-        <v>1.1200000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="H117" s="19">
-        <v>1.06</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I117" s="20"/>
       <c r="J117" s="18"/>
@@ -3669,7 +3669,7 @@
       <c r="T129" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dHI8CxL0aPoYcE00IopdKCw91tU13PZXoTB7Un4ne2Ux9UIfzWA6j2xUq786ZaVkFxZqR1PUoo8LEHl646llVA==" saltValue="mTuZtzv17Tc/eJ/rO4Qg6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7PqRloSebXiVgoNBkXjY7N7KulTLK5g0MSZHPAbct2KSqt/bHRXmv248YlVt63Y0iZygDVmLAOEIBqoWaHQxpg==" saltValue="gJ1lUyIRvSlcX6tg/ArakA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="37">
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -3895,7 +3895,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3942,15 +3942,15 @@
       </c>
       <c r="B2" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>input!C112/(input!C72-input!$E$94)</f>
-        <v>0.45808383233532929</v>
+        <v>0.64221556886227527</v>
       </c>
       <c r="D2" s="1">
         <f>input!C115/(input!C75-input!$E$95)</f>
-        <v>0.70742358078602618</v>
+        <v>0.83965014577259478</v>
       </c>
       <c r="E2" s="1" t="e">
         <f>input!C118/(input!C78-input!$E$96)</f>
@@ -3975,15 +3975,15 @@
       </c>
       <c r="B3" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <f>input!C113/(input!C73-input!$E$94)</f>
-        <v>0.47155688622754488</v>
+        <v>0.63323353293413165</v>
       </c>
       <c r="D3" s="1">
         <f>input!C116/(input!C76-input!$E$95)</f>
-        <v>0.67871485943775089</v>
+        <v>0.82439678284182294</v>
       </c>
       <c r="E3" s="1" t="e">
         <f>input!C119/(input!C79-input!$E$96)</f>
@@ -4008,15 +4008,15 @@
       </c>
       <c r="B4" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>input!C114/(input!C74-input!$E$94)</f>
-        <v>0.48154093097913325</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="D4" s="1">
         <f>input!C117/(input!C77-input!$E$95)</f>
-        <v>0.67400881057268724</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="E4" s="1" t="e">
         <f>input!C120/(input!C80-input!$E$96)</f>
@@ -4041,15 +4041,15 @@
       </c>
       <c r="B5" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>input!D112/(input!D72-input!$E$94)</f>
-        <v>0.39425981873111776</v>
+        <v>0.49395770392749239</v>
       </c>
       <c r="D5" s="1">
         <f>input!D115/(input!D75-input!$E$95)</f>
-        <v>0.57476635514018692</v>
+        <v>0.7160686427457098</v>
       </c>
       <c r="E5" s="1" t="e">
         <f>input!D118/(input!D78-input!$E$96)</f>
@@ -4074,15 +4074,15 @@
       </c>
       <c r="B6" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f>input!D113/(input!D73-input!$E$94)</f>
-        <v>0.39425981873111776</v>
+        <v>0.48036253776435039</v>
       </c>
       <c r="D6" s="1">
         <f>input!D116/(input!D76-input!$E$95)</f>
-        <v>0.58035714285714279</v>
+        <v>0.68852459016393441</v>
       </c>
       <c r="E6" s="1" t="e">
         <f>input!D119/(input!D79-input!$E$96)</f>
@@ -4107,15 +4107,15 @@
       </c>
       <c r="B7" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f>input!D114/(input!D74-input!$E$94)</f>
-        <v>0.4042879019908116</v>
+        <v>0.4961715160796325</v>
       </c>
       <c r="D7" s="1">
         <f>input!D117/(input!D77-input!$E$95)</f>
-        <v>0.56074766355140182</v>
+        <v>0.7160686427457098</v>
       </c>
       <c r="E7" s="1" t="e">
         <f>input!D120/(input!D80-input!$E$96)</f>
@@ -4144,11 +4144,11 @@
       </c>
       <c r="C8" s="1">
         <f>input!E112/(input!E72-input!$E$94)</f>
-        <v>0.32637853949329354</v>
+        <v>0.41579731743666171</v>
       </c>
       <c r="D8" s="1">
         <f>input!E115/(input!E75-input!$E$95)</f>
-        <v>0.5431034482758621</v>
+        <v>0.59136690647482026</v>
       </c>
       <c r="E8" s="1" t="e">
         <f>input!E118/(input!E78-input!$E$96)</f>
@@ -4177,11 +4177,11 @@
       </c>
       <c r="C9" s="1">
         <f>input!E113/(input!E73-input!$E$94)</f>
-        <v>0.33382789317507411</v>
+        <v>0.40504451038575662</v>
       </c>
       <c r="D9" s="1">
         <f>input!E116/(input!E76-input!$E$95)</f>
-        <v>0.54502369668246442</v>
+        <v>0.59810126582278489</v>
       </c>
       <c r="E9" s="1" t="e">
         <f>input!E119/(input!E79-input!$E$96)</f>
@@ -4210,11 +4210,11 @@
       </c>
       <c r="C10" s="1">
         <f>input!E114/(input!E74-input!$E$94)</f>
-        <v>0.37784522003034898</v>
+        <v>0.40515933232169954</v>
       </c>
       <c r="D10" s="1">
         <f>input!E117/(input!E77-input!$E$95)</f>
-        <v>0.55128205128205132</v>
+        <v>0.60342368045649075</v>
       </c>
       <c r="E10" s="1" t="e">
         <f>input!E120/(input!E80-input!$E$96)</f>
@@ -4290,15 +4290,15 @@
       </c>
       <c r="B2" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>input!F112/(input!F72-input!$E$94)</f>
-        <v>0.4597875569044006</v>
+        <v>0.65098634294385427</v>
       </c>
       <c r="D2" s="1">
         <f>input!F115/(input!F75-input!$E$95)</f>
-        <v>0.70614035087719307</v>
+        <v>0.84773060029282588</v>
       </c>
       <c r="E2" s="1" t="e">
         <f>input!F118/(input!F78-input!$E$96)</f>
@@ -4323,15 +4323,15 @@
       </c>
       <c r="B3" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <f>input!F113/(input!F73-input!$E$94)</f>
-        <v>0.48018292682926822</v>
+        <v>0.64024390243902429</v>
       </c>
       <c r="D3" s="1">
         <f>input!F116/(input!F76-input!$E$95)</f>
-        <v>0.72687224669603523</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="E3" s="1" t="e">
         <f>input!F119/(input!F79-input!$E$96)</f>
@@ -4356,15 +4356,15 @@
       </c>
       <c r="B4" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>input!F114/(input!F74-input!$E$94)</f>
-        <v>0.44410876132930505</v>
+        <v>0.65709969788519629</v>
       </c>
       <c r="D4" s="1">
         <f>input!F117/(input!F77-input!$E$95)</f>
-        <v>0.68240343347639487</v>
+        <v>0.84670487106017189</v>
       </c>
       <c r="E4" s="1" t="e">
         <f>input!F120/(input!F80-input!$E$96)</f>
@@ -4389,15 +4389,15 @@
       </c>
       <c r="B5" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>input!G112/(input!G72-input!$E$94)</f>
-        <v>0.35422740524781343</v>
+        <v>0.44169096209912539</v>
       </c>
       <c r="D5" s="1">
         <f>input!G115/(input!G75-input!$E$95)</f>
-        <v>0.51569506726457393</v>
+        <v>0.68712574850299402</v>
       </c>
       <c r="E5" s="1" t="e">
         <f>input!G118/(input!G78-input!$E$96)</f>
@@ -4422,15 +4422,15 @@
       </c>
       <c r="B6" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f>input!G113/(input!G73-input!$E$94)</f>
-        <v>0.375558867362146</v>
+        <v>0.44262295081967212</v>
       </c>
       <c r="D6" s="1">
         <f>input!G116/(input!G76-input!$E$95)</f>
-        <v>0.5636363636363636</v>
+        <v>0.69195751138088013</v>
       </c>
       <c r="E6" s="1" t="e">
         <f>input!G119/(input!G79-input!$E$96)</f>
@@ -4455,15 +4455,15 @@
       </c>
       <c r="B7" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f>input!G114/(input!G74-input!$E$94)</f>
-        <v>0.35800604229607247</v>
+        <v>0.43957703927492442</v>
       </c>
       <c r="D7" s="1">
         <f>input!G117/(input!G77-input!$E$95)</f>
-        <v>0.48908296943231444</v>
+        <v>0.70408163265306123</v>
       </c>
       <c r="E7" s="1" t="e">
         <f>input!G120/(input!G80-input!$E$96)</f>
@@ -4492,11 +4492,11 @@
       </c>
       <c r="C8" s="1">
         <f>input!H112/(input!H72-input!$E$94)</f>
-        <v>0.27896341463414631</v>
+        <v>0.32926829268292679</v>
       </c>
       <c r="D8" s="1">
         <f>input!H115/(input!H75-input!$E$95)</f>
-        <v>0.46118721461187218</v>
+        <v>0.50304878048780499</v>
       </c>
       <c r="E8" s="1" t="e">
         <f>input!H118/(input!H78-input!$E$96)</f>
@@ -4525,11 +4525,11 @@
       </c>
       <c r="C9" s="1">
         <f>input!H113/(input!H73-input!$E$94)</f>
-        <v>0.22779369627507165</v>
+        <v>0.30515759312320917</v>
       </c>
       <c r="D9" s="1">
         <f>input!H116/(input!H76-input!$E$95)</f>
-        <v>0.45833333333333331</v>
+        <v>0.5239567233384852</v>
       </c>
       <c r="E9" s="1" t="e">
         <f>input!H119/(input!H79-input!$E$96)</f>
@@ -4558,11 +4558,11 @@
       </c>
       <c r="C10" s="1">
         <f>input!H114/(input!H74-input!$E$94)</f>
-        <v>0.28360413589364841</v>
+        <v>0.33234859675036926</v>
       </c>
       <c r="D10" s="1">
         <f>input!H117/(input!H77-input!$E$95)</f>
-        <v>0.47111111111111115</v>
+        <v>0.51186943620178038</v>
       </c>
       <c r="E10" s="1" t="e">
         <f>input!H120/(input!H80-input!$E$96)</f>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B2" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>input!I112/(input!I72-input!$E$94)</f>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="B3" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <f>input!I113/(input!I73-input!$E$94)</f>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="B4" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>input!I114/(input!I74-input!$E$94)</f>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B5" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>input!J112/(input!J72-input!$E$94)</f>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="B6" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f>input!J113/(input!J73-input!$E$94)</f>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B7" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f>input!J114/(input!J74-input!$E$94)</f>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B2" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>input!L112/(input!L72-input!$E$94)</f>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B3" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <f>input!L113/(input!L73-input!$E$94)</f>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="B4" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>input!L114/(input!L74-input!$E$94)</f>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B5" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>input!M112/(input!M72-input!$E$94)</f>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B6" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f>input!M113/(input!M73-input!$E$94)</f>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B7" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f>input!M114/(input!M74-input!$E$94)</f>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B2" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>input!O112/(input!O72-input!$E$94)</f>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B3" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <f>input!O113/(input!O73-input!$E$94)</f>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B4" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>input!O114/(input!O74-input!$E$94)</f>
@@ -5430,7 +5430,7 @@
       </c>
       <c r="B5" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>input!P112/(input!P72-input!$E$94)</f>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B6" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f>input!P113/(input!P73-input!$E$94)</f>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B7" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f>input!P114/(input!P74-input!$E$94)</f>
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B2" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>input!R112/(input!R72-input!$E$94)</f>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B3" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <f>input!R113/(input!R73-input!$E$94)</f>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="B4" s="1">
         <f>input!C$104</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <f>input!R114/(input!R74-input!$E$94)</f>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="B5" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <f>input!S112/(input!S72-input!$E$94)</f>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="B6" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f>input!S113/(input!S73-input!$E$94)</f>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B7" s="1">
         <f>input!C$105</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <f>input!S114/(input!S74-input!$E$94)</f>
